--- a/Examples/Data/Articles/ManagingWorkbooksWorksheets/CopyMoveWorksheets/SecondWorkbook.xlsx
+++ b/Examples/Data/Articles/ManagingWorkbooksWorksheets/CopyMoveWorksheets/SecondWorkbook.xlsx
@@ -14,24 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>foo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
   </si>
   <si>
     <t>Jane</t>
   </si>
   <si>
-    <t>Jane@doe.com</t>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Jhonson</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Woods</t>
   </si>
 </sst>
 </file>
@@ -47,9 +101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,16 +126,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,100 +433,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>94</v>
+      </c>
+      <c r="F2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>90</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>95</v>
+      </c>
+      <c r="F4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>98</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>90</v>
+      </c>
+      <c r="F6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>95</v>
+      </c>
+      <c r="F8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="D9">
+        <v>102</v>
+      </c>
+      <c r="E9">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>103</v>
+      </c>
+      <c r="E10">
+        <v>90</v>
+      </c>
+      <c r="F10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>89.5</v>
+      </c>
+      <c r="D11">
+        <v>89.5</v>
+      </c>
+      <c r="E11">
+        <v>89.5</v>
+      </c>
+      <c r="F11">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>89.133330000000001</v>
+      </c>
+      <c r="D12">
+        <v>89.133330000000001</v>
+      </c>
+      <c r="E12">
+        <v>89.133330000000001</v>
+      </c>
+      <c r="F12">
+        <v>89.133330000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="D13">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="E13">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="F13">
+        <v>88.766670000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="D14">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="E14">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="F14">
+        <v>88.766670000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="D15">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="E15">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="F15">
+        <v>88.766670000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="D16">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="E16">
+        <v>88.766670000000005</v>
+      </c>
+      <c r="F16">
+        <v>88.766670000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>86.933329999999998</v>
+      </c>
+      <c r="D17">
+        <v>86.933329999999998</v>
+      </c>
+      <c r="E17">
+        <v>86.933329999999998</v>
+      </c>
+      <c r="F17">
+        <v>86.933329999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>86.566670000000002</v>
+      </c>
+      <c r="D18">
+        <v>86.566670000000002</v>
+      </c>
+      <c r="E18">
+        <v>86.566670000000002</v>
+      </c>
+      <c r="F18">
+        <v>86.566670000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>86.2</v>
+      </c>
+      <c r="D19">
+        <v>86.2</v>
+      </c>
+      <c r="E19">
+        <v>86.2</v>
+      </c>
+      <c r="F19">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>85.833330000000004</v>
+      </c>
+      <c r="D20">
+        <v>86.833330000000004</v>
+      </c>
+      <c r="E20">
+        <v>85.833330000000004</v>
+      </c>
+      <c r="F20">
+        <v>86.833330000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>85.1</v>
+      </c>
+      <c r="D21">
+        <v>86.1</v>
+      </c>
+      <c r="E21">
+        <v>85.1</v>
+      </c>
+      <c r="F21">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>84.733329999999995</v>
+      </c>
+      <c r="D22">
+        <v>85.733329999999995</v>
+      </c>
+      <c r="E22">
+        <v>84.733329999999995</v>
+      </c>
+      <c r="F22">
+        <v>85.733329999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>84.366667000000007</v>
+      </c>
+      <c r="D23">
+        <v>84.366667000000007</v>
+      </c>
+      <c r="E23">
+        <v>84.366667000000007</v>
+      </c>
+      <c r="F23">
+        <v>84.366667000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>84.733329999999995</v>
+      </c>
+      <c r="D24">
+        <v>84.733329999999995</v>
+      </c>
+      <c r="E24">
+        <v>84.733329999999995</v>
+      </c>
+      <c r="F24">
+        <v>84.733329999999995</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B7" r:id="rId2" display="Jane@doe.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>